--- a/data/99. analyzes/excel/2017_pharma_summarize.xlsx
+++ b/data/99. analyzes/excel/2017_pharma_summarize.xlsx
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>465310.3199999999</v>
+        <v>465310.32</v>
       </c>
       <c r="C3" t="n">
         <v>135153.55</v>
@@ -773,7 +773,7 @@
         <v>74910.16</v>
       </c>
       <c r="G6" t="n">
-        <v>1132869.58</v>
+        <v>566434.79</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -796,7 +796,7 @@
         <v>422891.99</v>
       </c>
       <c r="G7" t="n">
-        <v>5555347.869999999</v>
+        <v>5555347.87</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -859,7 +859,7 @@
         <v>7179.4</v>
       </c>
       <c r="E10" t="n">
-        <v>34537.99999999999</v>
+        <v>34538</v>
       </c>
       <c r="F10" t="n">
         <v>24985</v>
@@ -879,16 +879,16 @@
         <v>5305429.789999999</v>
       </c>
       <c r="D11" t="n">
-        <v>258833.83</v>
+        <v>258833.8300000001</v>
       </c>
       <c r="E11" t="n">
-        <v>790556.0600000001</v>
+        <v>790556.0599999998</v>
       </c>
       <c r="F11" t="n">
-        <v>927220.7499999998</v>
+        <v>927220.7500000001</v>
       </c>
       <c r="G11" t="n">
-        <v>11996817.49000001</v>
+        <v>11996817.49</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -902,7 +902,7 @@
         <v>313215</v>
       </c>
       <c r="D12" t="n">
-        <v>4840.8</v>
+        <v>4840.799999999999</v>
       </c>
       <c r="E12" t="n">
         <v>6331</v>
@@ -911,7 +911,7 @@
         <v>7200</v>
       </c>
       <c r="G12" t="n">
-        <v>663173.6</v>
+        <v>331586.8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1158,7 +1158,7 @@
         <v>16785.96</v>
       </c>
       <c r="E23" t="n">
-        <v>32465.07</v>
+        <v>32465.06999999999</v>
       </c>
       <c r="F23" t="n">
         <v>26665.77</v>
@@ -1233,7 +1233,7 @@
         <v>315853.4</v>
       </c>
       <c r="G26" t="n">
-        <v>3778016.7</v>
+        <v>3778016.700000001</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1371,7 +1371,7 @@
         <v>6700</v>
       </c>
       <c r="G32" t="n">
-        <v>448355.78</v>
+        <v>224177.89</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1382,19 +1382,19 @@
         <v>217086.3</v>
       </c>
       <c r="C33" t="n">
-        <v>1185171.8</v>
+        <v>1193711.8</v>
       </c>
       <c r="D33" t="n">
-        <v>59104.39999999993</v>
+        <v>59104.39999999992</v>
       </c>
       <c r="E33" t="n">
         <v>152658.9600000001</v>
       </c>
       <c r="F33" t="n">
-        <v>75799.5</v>
+        <v>72599.5</v>
       </c>
       <c r="G33" t="n">
-        <v>1689821.86</v>
+        <v>1695160.96</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1563,10 +1563,10 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>3729758.59</v>
+        <v>3740958.59</v>
       </c>
       <c r="C41" t="n">
-        <v>5539946.979999999</v>
+        <v>5846360.979999999</v>
       </c>
       <c r="D41" t="n">
         <v>422733.6299999999</v>
@@ -1575,10 +1575,10 @@
         <v>61253.24</v>
       </c>
       <c r="F41" t="n">
-        <v>1638673.53</v>
+        <v>1639963.53</v>
       </c>
       <c r="G41" t="n">
-        <v>19580540.17</v>
+        <v>19899444.17</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1819,13 +1819,13 @@
         <v>349317.6</v>
       </c>
       <c r="C52" t="n">
-        <v>478192.3100000001</v>
+        <v>478192.31</v>
       </c>
       <c r="D52" t="n">
         <v>1697.75</v>
       </c>
       <c r="E52" t="n">
-        <v>49396.37000000001</v>
+        <v>49396.37</v>
       </c>
       <c r="F52" t="n">
         <v>74429.36</v>
@@ -1865,7 +1865,7 @@
         <v>192712.45</v>
       </c>
       <c r="C54" t="n">
-        <v>292246.4</v>
+        <v>291046.4</v>
       </c>
       <c r="D54" t="n">
         <v>18826.01</v>
@@ -1874,10 +1874,10 @@
         <v>114231.33</v>
       </c>
       <c r="F54" t="n">
-        <v>142349.53</v>
+        <v>139949.53</v>
       </c>
       <c r="G54" t="n">
-        <v>1185205.14</v>
+        <v>1181605.14</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1914,7 +1914,7 @@
         <v>295351.46</v>
       </c>
       <c r="D56" t="n">
-        <v>17129.51</v>
+        <v>17129.50999999999</v>
       </c>
       <c r="E56" t="n">
         <v>28130.8</v>
@@ -1940,7 +1940,7 @@
         <v>81735.10000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>205200.4799999999</v>
+        <v>205200.48</v>
       </c>
       <c r="F57" t="n">
         <v>340591.8799999999</v>
@@ -2099,7 +2099,7 @@
         <v>67</v>
       </c>
       <c r="C5" t="n">
-        <v>465310.3199999999</v>
+        <v>465310.32</v>
       </c>
       <c r="D5" t="n">
         <v>135153.55</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>566434.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2410,7 +2410,7 @@
         <v>228716.58</v>
       </c>
       <c r="H17" t="n">
-        <v>3554404.809999999</v>
+        <v>3554404.81</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2434,7 +2434,7 @@
         <v>194175.41</v>
       </c>
       <c r="H18" t="n">
-        <v>774146.0899999997</v>
+        <v>774146.09</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2558,7 +2558,7 @@
         <v>181434.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2718499.670000001</v>
+        <v>2718499.67</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2650,13 +2650,13 @@
         <v>2064.4</v>
       </c>
       <c r="F27" t="n">
-        <v>30029.39999999999</v>
+        <v>30029.4</v>
       </c>
       <c r="G27" t="n">
         <v>24985</v>
       </c>
       <c r="H27" t="n">
-        <v>57078.79999999999</v>
+        <v>57078.8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>532978.95</v>
       </c>
       <c r="H29" t="n">
-        <v>5923815.76</v>
+        <v>5923815.760000001</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2724,7 +2724,7 @@
         <v>220289.1</v>
       </c>
       <c r="F30" t="n">
-        <v>730610.04</v>
+        <v>730610.0399999998</v>
       </c>
       <c r="G30" t="n">
         <v>394241.8</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>4840.8</v>
+        <v>4840.799999999999</v>
       </c>
       <c r="F33" t="n">
         <v>6331</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>331586.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3026,7 +3026,7 @@
         <v>259180.56</v>
       </c>
       <c r="H42" t="n">
-        <v>495575.86</v>
+        <v>495575.8600000001</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3689,10 +3689,10 @@
         <v>16800.7</v>
       </c>
       <c r="G69" t="n">
-        <v>70820.87999999998</v>
+        <v>70820.87999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>90421.78999999998</v>
+        <v>90421.78999999999</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>44137.10000000001</v>
+        <v>44137.1</v>
       </c>
       <c r="H75" t="n">
-        <v>44467.61000000001</v>
+        <v>44467.61</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>224177.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4322,7 +4322,7 @@
         <v>217086.3</v>
       </c>
       <c r="D95" t="n">
-        <v>1167371.8</v>
+        <v>1175911.8</v>
       </c>
       <c r="E95" t="n">
         <v>1375.6</v>
@@ -4334,7 +4334,7 @@
         <v>9000</v>
       </c>
       <c r="H95" t="n">
-        <v>1398603.9</v>
+        <v>1407143.9</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4349,16 +4349,16 @@
         <v>17800</v>
       </c>
       <c r="E96" t="n">
-        <v>57728.79999999993</v>
+        <v>57728.79999999992</v>
       </c>
       <c r="F96" t="n">
-        <v>148888.66</v>
+        <v>148888.6600000001</v>
       </c>
       <c r="G96" t="n">
-        <v>66799.5</v>
+        <v>63599.5</v>
       </c>
       <c r="H96" t="n">
-        <v>291217.9600000001</v>
+        <v>288017.0600000001</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4482,7 +4482,7 @@
         <v>82677.82000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>6423022.259999999</v>
+        <v>6423022.26</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>31770.52</v>
       </c>
       <c r="F102" t="n">
-        <v>93602.39000000001</v>
+        <v>93602.39</v>
       </c>
       <c r="G102" t="n">
         <v>230682.9</v>
@@ -4911,10 +4911,10 @@
         <v>67</v>
       </c>
       <c r="C119" t="n">
-        <v>3729758.59</v>
+        <v>3740958.59</v>
       </c>
       <c r="D119" t="n">
-        <v>5539946.979999999</v>
+        <v>5846360.979999999</v>
       </c>
       <c r="E119" t="n">
         <v>380967.6799999999</v>
@@ -4923,10 +4923,10 @@
         <v>24771.01</v>
       </c>
       <c r="G119" t="n">
-        <v>1056726.6</v>
+        <v>1058016.6</v>
       </c>
       <c r="H119" t="n">
-        <v>10752400.31</v>
+        <v>11071304.31</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>13735</v>
       </c>
       <c r="H126" t="n">
-        <v>50013.01000000001</v>
+        <v>50013.01</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5290,7 +5290,7 @@
         <v>49280.18</v>
       </c>
       <c r="F134" t="n">
-        <v>5995.39</v>
+        <v>5995.390000000001</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>9191.110000000001</v>
+        <v>9191.109999999999</v>
       </c>
       <c r="F135" t="n">
         <v>20517.67</v>
@@ -5320,7 +5320,7 @@
         <v>10811.55</v>
       </c>
       <c r="H135" t="n">
-        <v>40921.26</v>
+        <v>40921.25999999999</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5465,10 +5465,10 @@
         <v>1403.94</v>
       </c>
       <c r="G141" t="n">
-        <v>58017.63</v>
+        <v>58017.62999999999</v>
       </c>
       <c r="H141" t="n">
-        <v>70443.04999999999</v>
+        <v>70443.05</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5542,7 +5542,7 @@
         <v>318965.56</v>
       </c>
       <c r="H144" t="n">
-        <v>497752.67</v>
+        <v>497752.6699999999</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5728,7 +5728,7 @@
         <v>349317.6</v>
       </c>
       <c r="D152" t="n">
-        <v>478192.3100000001</v>
+        <v>478192.31</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>192712.45</v>
       </c>
       <c r="D158" t="n">
-        <v>292246.4</v>
+        <v>291046.4</v>
       </c>
       <c r="E158" t="n">
         <v>13276.56</v>
@@ -5885,10 +5885,10 @@
         <v>77705.12</v>
       </c>
       <c r="G158" t="n">
-        <v>66262.98</v>
+        <v>65862.98</v>
       </c>
       <c r="H158" t="n">
-        <v>643025.45</v>
+        <v>641425.45</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5906,13 +5906,13 @@
         <v>5549.450000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>36526.21000000001</v>
+        <v>36526.20999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>76086.55</v>
+        <v>74086.55</v>
       </c>
       <c r="H159" t="n">
-        <v>133115.84</v>
+        <v>131115.84</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>17129.51</v>
+        <v>17129.50999999999</v>
       </c>
       <c r="F165" t="n">
         <v>28130.8</v>
@@ -6128,13 +6128,13 @@
         <v>75894.45000000001</v>
       </c>
       <c r="F168" t="n">
-        <v>186979.7399999999</v>
+        <v>186979.74</v>
       </c>
       <c r="G168" t="n">
         <v>211763.38</v>
       </c>
       <c r="H168" t="n">
-        <v>514250.6499999995</v>
+        <v>514250.6499999997</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6517,7 +6517,7 @@
         <v>67</v>
       </c>
       <c r="C9" t="n">
-        <v>462094.4999999999</v>
+        <v>462094.5</v>
       </c>
       <c r="D9" t="n">
         <v>131653.55</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>566434.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7164,7 +7164,7 @@
         <v>132111.81</v>
       </c>
       <c r="H35" t="n">
-        <v>3444995.079999999</v>
+        <v>3444995.08</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7236,7 +7236,7 @@
         <v>116183.68</v>
       </c>
       <c r="H38" t="n">
-        <v>590766.3799999998</v>
+        <v>590766.38</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7504,7 +7504,7 @@
         <v>181375.3</v>
       </c>
       <c r="H49" t="n">
-        <v>2629290.670000001</v>
+        <v>2629290.67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7740,13 +7740,13 @@
         <v>2064.4</v>
       </c>
       <c r="F59" t="n">
-        <v>30029.39999999999</v>
+        <v>30029.4</v>
       </c>
       <c r="G59" t="n">
         <v>24985</v>
       </c>
       <c r="H59" t="n">
-        <v>57078.79999999999</v>
+        <v>57078.8</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7832,7 +7832,7 @@
         <v>7040</v>
       </c>
       <c r="D63" t="n">
-        <v>4632170.599999999</v>
+        <v>4632170.6</v>
       </c>
       <c r="E63" t="n">
         <v>38454.73</v>
@@ -7844,7 +7844,7 @@
         <v>518548.95</v>
       </c>
       <c r="H63" t="n">
-        <v>5260191.109999999</v>
+        <v>5260191.11</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7910,13 +7910,13 @@
         <v>82261.25000000003</v>
       </c>
       <c r="F66" t="n">
-        <v>293289.2</v>
+        <v>293289.1999999998</v>
       </c>
       <c r="G66" t="n">
         <v>168791.18</v>
       </c>
       <c r="H66" t="n">
-        <v>566845.4199999999</v>
+        <v>566845.4200000002</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>4840.8</v>
+        <v>4840.799999999999</v>
       </c>
       <c r="F73" t="n">
         <v>6331</v>
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>331586.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8596,7 +8596,7 @@
         <v>120743.32</v>
       </c>
       <c r="H94" t="n">
-        <v>267684.85</v>
+        <v>267684.8500000001</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -9106,7 +9106,7 @@
         <v>21366.05</v>
       </c>
       <c r="H115" t="n">
-        <v>59148.43000000001</v>
+        <v>59148.43</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -9956,7 +9956,7 @@
         <v>11326</v>
       </c>
       <c r="H150" t="n">
-        <v>43268.67</v>
+        <v>43268.67000000001</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -10123,10 +10123,10 @@
         <v>14165.65</v>
       </c>
       <c r="G157" t="n">
-        <v>65318.87999999998</v>
+        <v>65318.87999999999</v>
       </c>
       <c r="H157" t="n">
-        <v>80085.73999999998</v>
+        <v>80085.73999999999</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10463,10 +10463,10 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>44137.10000000001</v>
+        <v>44137.1</v>
       </c>
       <c r="H171" t="n">
-        <v>44467.61000000001</v>
+        <v>44467.61</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10854,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>224177.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11548,7 +11548,7 @@
         <v>113904</v>
       </c>
       <c r="D216" t="n">
-        <v>1167371.8</v>
+        <v>1175911.8</v>
       </c>
       <c r="E216" t="n">
         <v>1375.6</v>
@@ -11560,7 +11560,7 @@
         <v>9000</v>
       </c>
       <c r="H216" t="n">
-        <v>1295421.6</v>
+        <v>1303961.6</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11623,16 +11623,16 @@
         <v>17200</v>
       </c>
       <c r="E219" t="n">
-        <v>57728.79999999993</v>
+        <v>57728.79999999992</v>
       </c>
       <c r="F219" t="n">
-        <v>118175.5</v>
+        <v>118175.5000000001</v>
       </c>
       <c r="G219" t="n">
-        <v>63577.5</v>
+        <v>60377.5</v>
       </c>
       <c r="H219" t="n">
-        <v>256682.8000000001</v>
+        <v>253481.9000000001</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11900,7 +11900,7 @@
         <v>82677.82000000001</v>
       </c>
       <c r="H230" t="n">
-        <v>6423022.259999999</v>
+        <v>6423022.26</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -12857,10 +12857,10 @@
         <v>67</v>
       </c>
       <c r="C270" t="n">
-        <v>3729758.59</v>
+        <v>3740958.59</v>
       </c>
       <c r="D270" t="n">
-        <v>5538946.979999999</v>
+        <v>5845360.979999999</v>
       </c>
       <c r="E270" t="n">
         <v>380967.6799999999</v>
@@ -12869,10 +12869,10 @@
         <v>24771.01</v>
       </c>
       <c r="G270" t="n">
-        <v>1056726.6</v>
+        <v>1058016.6</v>
       </c>
       <c r="H270" t="n">
-        <v>10751400.31</v>
+        <v>11070304.31</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="E287" t="n">
-        <v>9387.48</v>
+        <v>9387.479999999998</v>
       </c>
       <c r="F287" t="n">
         <v>23195.28</v>
@@ -13284,7 +13284,7 @@
         <v>13735</v>
       </c>
       <c r="H287" t="n">
-        <v>46317.72000000001</v>
+        <v>46317.72</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13454,7 +13454,7 @@
         <v>27310</v>
       </c>
       <c r="H294" t="n">
-        <v>59313.03</v>
+        <v>59313.03000000001</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13716,7 +13716,7 @@
         <v>49280.18</v>
       </c>
       <c r="F305" t="n">
-        <v>5995.39</v>
+        <v>5995.390000000001</v>
       </c>
       <c r="G305" t="n">
         <v>0</v>
@@ -13785,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>8801.880000000001</v>
+        <v>8801.879999999999</v>
       </c>
       <c r="F308" t="n">
         <v>18807.6</v>
@@ -14131,10 +14131,10 @@
         <v>361.3</v>
       </c>
       <c r="G322" t="n">
-        <v>47550.89</v>
+        <v>47550.88999999999</v>
       </c>
       <c r="H322" t="n">
-        <v>57976.32999999999</v>
+        <v>57976.33</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14304,7 +14304,7 @@
         <v>143487.82</v>
       </c>
       <c r="H329" t="n">
-        <v>218950.27</v>
+        <v>218950.2699999999</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14682,7 +14682,7 @@
         <v>349317.6</v>
       </c>
       <c r="D345" t="n">
-        <v>463192.3100000001</v>
+        <v>463192.31</v>
       </c>
       <c r="E345" t="n">
         <v>0</v>
@@ -15022,7 +15022,7 @@
         <v>192712.45</v>
       </c>
       <c r="D359" t="n">
-        <v>292246.4</v>
+        <v>291046.4</v>
       </c>
       <c r="E359" t="n">
         <v>13276.56</v>
@@ -15031,10 +15031,10 @@
         <v>77705.12</v>
       </c>
       <c r="G359" t="n">
-        <v>66262.98</v>
+        <v>65862.98</v>
       </c>
       <c r="H359" t="n">
-        <v>643025.45</v>
+        <v>641425.45</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15100,13 +15100,13 @@
         <v>5549.450000000001</v>
       </c>
       <c r="F362" t="n">
-        <v>36526.21000000001</v>
+        <v>36526.20999999999</v>
       </c>
       <c r="G362" t="n">
-        <v>64024</v>
+        <v>62024</v>
       </c>
       <c r="H362" t="n">
-        <v>120882.09</v>
+        <v>118882.09</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15610,13 +15610,13 @@
         <v>65785.06000000001</v>
       </c>
       <c r="F383" t="n">
-        <v>160743.4799999999</v>
+        <v>160743.48</v>
       </c>
       <c r="G383" t="n">
         <v>157643.84</v>
       </c>
       <c r="H383" t="n">
-        <v>396409.1999999995</v>
+        <v>396409.1999999997</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -16024,7 +16024,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="n">
-        <v>888916.8799999999</v>
+        <v>888916.8799999998</v>
       </c>
       <c r="C5" t="n">
         <v>46</v>
@@ -16204,7 +16204,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>5827036.530000005</v>
+        <v>5827036.53</v>
       </c>
       <c r="C14" t="n">
         <v>79</v>
@@ -16216,7 +16216,7 @@
         <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>7355689.800000004</v>
+        <v>7355689.800000001</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -16264,7 +16264,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>487499.3100000001</v>
+        <v>487499.31</v>
       </c>
       <c r="C17" t="n">
         <v>86</v>
@@ -16424,7 +16424,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="n">
-        <v>1552104.4</v>
+        <v>1557443.5</v>
       </c>
       <c r="C25" t="n">
         <v>92</v>
@@ -16436,7 +16436,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>1689821.86</v>
+        <v>1695160.96</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -16704,7 +16704,7 @@
         <v>61</v>
       </c>
       <c r="B39" t="n">
-        <v>763907.5399999999</v>
+        <v>760307.5399999999</v>
       </c>
       <c r="C39" t="n">
         <v>98</v>
@@ -16716,7 +16716,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>776141.2899999999</v>
+        <v>772541.2899999999</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -17004,7 +17004,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="n">
-        <v>3584131.29</v>
+        <v>3584131.290000001</v>
       </c>
       <c r="C54" t="n">
         <v>100</v>
@@ -17016,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>3584131.29</v>
+        <v>3584131.290000001</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -17044,7 +17044,7 @@
         <v>48</v>
       </c>
       <c r="B56" t="n">
-        <v>11423324.19</v>
+        <v>11742228.19</v>
       </c>
       <c r="C56" t="n">
         <v>100</v>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>11438713.56</v>
+        <v>11757617.56</v>
       </c>
     </row>
     <row r="57" spans="1:6">

--- a/data/99. analyzes/excel/2017_pharma_summarize.xlsx
+++ b/data/99. analyzes/excel/2017_pharma_summarize.xlsx
@@ -1819,7 +1819,7 @@
         <v>349317.6</v>
       </c>
       <c r="C52" t="n">
-        <v>478192.31</v>
+        <v>478192.3100000001</v>
       </c>
       <c r="D52" t="n">
         <v>1697.75</v>
@@ -5728,7 +5728,7 @@
         <v>349317.6</v>
       </c>
       <c r="D152" t="n">
-        <v>478192.31</v>
+        <v>478192.3100000001</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -14682,7 +14682,7 @@
         <v>349317.6</v>
       </c>
       <c r="D345" t="n">
-        <v>463192.31</v>
+        <v>463192.3100000001</v>
       </c>
       <c r="E345" t="n">
         <v>0</v>
